--- a/medicine/Maladies infectieuses/Nation_apprenante/Nation_apprenante.xlsx
+++ b/medicine/Maladies infectieuses/Nation_apprenante/Nation_apprenante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'opération Nation apprenante est un programme d'apprentissage alternatif aux cours en établissements scolaires du ministère français de l'Éducation nationale créé en mars 2020 en réponse au confinement en vigueur lors de la crise de pandémie de Covid-19. 
-Les médias requérant le label « nation apprenante » pour leurs contenus, qu'ils soient télévisés, radiophoniques ou écrits, passent un examen par la direction générale de l'enseignement scolaire et l'inspection générale de l'Éducation, du sport et de la recherche qui déterminent lesquels correspondent aux critères de « programmes de qualité en lien avec les programmes scolaires »[1],[2].
-Le ministre de l'Éducation Jean-Michel Blanquer souhaite réduire les inégalités d'accès aux nouvelles technologies en permettant aux élèves de se référer aux supports classiques[1], notamment l'audiovisuel public[2], les programmes étant également disponibles en télévision de rattrapage et en podcast.
-Dans le cadre de la mission « Nation apprenante », tout au long de la journée, du lundi au vendredi, de 9 h jusqu’à 17 h 30, en partenariat avec le ministère de l'Éducation nationale et de la Jeunesse, La Maison Lumni propose cinq séances de cours réparties sur la journée en fonction des niveaux scolaires et un magazine éducatif. Il y a des cours d'histoire, de mathématiques, de français, de géographie, de sciences et technologie, d'arts et culture, d'enseignement moral et civique, de langues vivantes et d'éducation aux médias[3].
+Les médias requérant le label « nation apprenante » pour leurs contenus, qu'ils soient télévisés, radiophoniques ou écrits, passent un examen par la direction générale de l'enseignement scolaire et l'inspection générale de l'Éducation, du sport et de la recherche qui déterminent lesquels correspondent aux critères de « programmes de qualité en lien avec les programmes scolaires »,.
+Le ministre de l'Éducation Jean-Michel Blanquer souhaite réduire les inégalités d'accès aux nouvelles technologies en permettant aux élèves de se référer aux supports classiques, notamment l'audiovisuel public, les programmes étant également disponibles en télévision de rattrapage et en podcast.
+Dans le cadre de la mission « Nation apprenante », tout au long de la journée, du lundi au vendredi, de 9 h jusqu’à 17 h 30, en partenariat avec le ministère de l'Éducation nationale et de la Jeunesse, La Maison Lumni propose cinq séances de cours réparties sur la journée en fonction des niveaux scolaires et un magazine éducatif. Il y a des cours d'histoire, de mathématiques, de français, de géographie, de sciences et technologie, d'arts et culture, d'enseignement moral et civique, de langues vivantes et d'éducation aux médias.
 </t>
         </is>
       </c>
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Émissions télévisées et télévision de rattrapage
-France.TV
+          <t>Émissions télévisées et télévision de rattrapage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>France.TV
 France 2
 France 3
 France 4
@@ -536,9 +553,43 @@
 Gulli
 M6
 RMC Story
-RMC Découverte
-Émissions radios et podcasts
-Radio France
+RMC Découverte</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nation_apprenante</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nation_apprenante</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Partenaire de l'opération Nation apprenante[4]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Émissions radios et podcasts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Radio France
 France Culture
 France Info
 France Musique
@@ -548,9 +599,43 @@
 RFI
 France 24
 Radio Classique
-RTL
-Presse écrite, presse en ligne et presse locale
-PlayBac Presse
+RTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nation_apprenante</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nation_apprenante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Partenaire de l'opération Nation apprenante[4]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Presse écrite, presse en ligne et presse locale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>PlayBac Presse
 Le Petit Quotidien
 Mon quotidien
 L'ACTU
@@ -568,9 +653,47 @@
 J'aime lire Max
 Images Doc
 Youpi
-Bayam
-Presse locale
-Académie d'Aix-Marseille
+Bayam</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nation_apprenante</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nation_apprenante</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Partenaire de l'opération Nation apprenante[4]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Presse écrite, presse en ligne et presse locale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Presse locale</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Académie d'Aix-Marseille
 La Provence
 Académie d'Amiens
 Wéo
